--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>对校比邻后台进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看thinkingJava到80页，并对书上例子进行练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解云谷项目的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习docker部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -555,6 +579,33 @@
       </c>
       <c r="D7" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>42999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -591,6 +591,9 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
@@ -599,6 +602,9 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
@@ -606,6 +612,9 @@
       </c>
       <c r="C11" t="s">
         <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习docker部署，在云服务器上部署和在本机上部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -615,6 +623,17 @@
       </c>
       <c r="D11" s="2">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -634,6 +634,11 @@
       </c>
       <c r="C13" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>学习docker部署，在云服务器上部署和在本机上部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求还未下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本机部署，云服务器上面部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +511,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -613,6 +621,9 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
@@ -634,6 +645,12 @@
       </c>
       <c r="C13" t="s">
         <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,11 +651,6 @@
       </c>
       <c r="E13" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>本机部署，云服务器上面部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习docker部署，在云服务器上部署和在本机上部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,6 +659,17 @@
       </c>
       <c r="E13" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,11 +150,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习docker部署，在云服务器上部署和在本机上部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做接口测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -666,10 +674,32 @@
         <v>43003</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,26 @@
   </si>
   <si>
     <t>学习docker部署，在云服务器上部署和在本机上部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker部署，学习jenkins部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -683,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43004</v>
       </c>
@@ -693,13 +713,38 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9月27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +179,18 @@
   </si>
   <si>
     <t>做接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发接口没做完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,23 +736,34 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
         <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,19 +178,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发接口没做完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker部署，学习jenkins部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>做接口测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发接口没做完</t>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -736,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -749,21 +757,49 @@
       <c r="C21" t="s">
         <v>30</v>
       </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -560,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -800,6 +800,11 @@
       </c>
       <c r="C26" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,7 +194,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做接口测试</t>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文点评网功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文点评网功能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,7 +571,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -791,20 +799,32 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>36</v>
+      <c r="D26" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
-        <v>9</v>
+      <c r="A28" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>作文点评网功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -821,10 +825,24 @@
         <v>43007</v>
       </c>
       <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B31" t="s">
         <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>作文点评网功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -572,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -839,10 +843,24 @@
         <v>43008</v>
       </c>
       <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>43017</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,11 +210,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作文点评网功能测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,14 +584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -852,15 +861,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>43017</v>
       </c>
       <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
         <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>43018</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -895,6 +895,11 @@
       </c>
       <c r="C35" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>43019</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>作文点评网功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习詹金斯部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -891,15 +899,43 @@
         <v>43018</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>43019</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,15 +222,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学习詹金斯部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习詹金斯部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作文点评网功能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习詹金斯部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习安全测试工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -910,10 +922,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
         <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
       </c>
       <c r="D36" s="2">
         <v>0.2</v>
@@ -924,18 +936,51 @@
         <v>43019</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B41" t="s">
         <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>学习安全测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA代码量500行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP进行回归测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -966,6 +978,9 @@
       <c r="C41" t="s">
         <v>46</v>
       </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
@@ -974,6 +989,9 @@
       <c r="C42" t="s">
         <v>46</v>
       </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
@@ -981,6 +999,28 @@
       </c>
       <c r="C43" t="s">
         <v>46</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1021,6 +1021,11 @@
       </c>
       <c r="C47" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -616,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
@@ -1021,11 +1021,6 @@
       </c>
       <c r="C47" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,31 +230,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>作文点评网功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习安全测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA代码量500行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP进行回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习詹金斯部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作文点评网功能测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习安全测试工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA代码量500行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作文APP进行回归测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +623,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -973,10 +977,10 @@
         <v>43020</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -984,10 +988,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
         <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>46</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -995,13 +999,38 @@
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1009,18 +1038,18 @@
         <v>43024</v>
       </c>
       <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
         <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JAVA代码量500行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,26 @@
   </si>
   <si>
     <t>学习安全测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件软件回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA代码量200行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA代码量200行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP进行回归测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1013,7 +1029,7 @@
         <v>43021</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1024,7 +1040,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1038,18 +1054,51 @@
         <v>43024</v>
       </c>
       <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
-        <v>48</v>
+      <c r="D46" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1099,6 +1099,11 @@
     <row r="51" spans="1:3">
       <c r="B51" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -636,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
@@ -1099,11 +1099,6 @@
     <row r="51" spans="1:3">
       <c r="B51" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,11 +270,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP进行回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JAVA代码量200行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作文APP进行回归测试</t>
+    <t>云谷项目熟悉需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1085,20 +1093,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="49" spans="1:4">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>43025</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1146,6 +1146,11 @@
       </c>
       <c r="C55" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目熟悉需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1121,36 +1125,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:4">
+      <c r="D52" s="2"/>
+    </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>43026</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
       </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>54</v>
       </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58">
-        <v>1</v>
+      <c r="A58" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
   </si>
   <si>
     <t>云谷项目熟悉需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作文APP进行回归测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -648,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1169,25 +1165,61 @@
         <v>43027</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>43028</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,22 @@
   </si>
   <si>
     <t>云谷项目熟悉需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP进行回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA代码量200行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目熟悉需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1196,6 +1212,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61" spans="1:4">
+      <c r="D61" s="2"/>
+    </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>43028</v>
@@ -1206,6 +1225,9 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" t="s">
@@ -1214,6 +1236,9 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" t="s">
@@ -1221,6 +1246,36 @@
       </c>
       <c r="C64" t="s">
         <v>5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>43029</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1251,9 +1251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>43029</v>
+        <v>43031</v>
       </c>
       <c r="B67" t="s">
         <v>58</v>
@@ -1261,22 +1261,28 @@
       <c r="C67" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="B68" t="s">
         <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="B69" t="s">
         <v>60</v>
       </c>
       <c r="C69" t="s">
         <v>61</v>
       </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+      <selection activeCell="D71" sqref="D71:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1261,7 +1261,9 @@
       <c r="C67" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" t="s">
@@ -1270,7 +1272,9 @@
       <c r="C68" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
@@ -1279,10 +1283,45 @@
       <c r="C69" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,6 +1321,33 @@
       </c>
       <c r="D73" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C77"/>
+      <selection activeCell="D75" sqref="D75:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1333,6 +1333,9 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="B76" t="s">
@@ -1341,12 +1344,45 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="B77" t="s">
         <v>55</v>
       </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75:D77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1369,6 +1369,9 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="B80" t="s">
@@ -1377,12 +1380,45 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="B81" t="s">
         <v>55</v>
       </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1420,6 +1420,11 @@
       </c>
       <c r="C85" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1405,6 +1405,9 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="B84" t="s">
@@ -1413,6 +1416,9 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" t="s">
@@ -1421,10 +1427,35 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87">
-        <v>10</v>
+      <c r="A87" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D87" sqref="D87:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1441,6 +1441,9 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="B88" t="s">
@@ -1449,12 +1452,45 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="B89" t="s">
         <v>55</v>
       </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87:D89"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1492,6 +1492,11 @@
       </c>
       <c r="C93" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+      <selection activeCell="C97" sqref="C97:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1477,6 +1477,9 @@
       <c r="C91" t="s">
         <v>5</v>
       </c>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="B92" t="s">
@@ -1485,6 +1488,9 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="B93" t="s">
@@ -1493,10 +1499,37 @@
       <c r="C93" t="s">
         <v>5</v>
       </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96">
-        <v>1</v>
+      <c r="A96" s="1">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97:C99"/>
+      <selection activeCell="C101" sqref="C101:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1508,27 +1508,63 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="1:4">
       <c r="B97" t="s">
         <v>48</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="B98" t="s">
         <v>53</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:3">
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="B99" t="s">
         <v>55</v>
       </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>43041</v>
+      </c>
+      <c r="B101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101:C103"/>
+      <selection activeCell="D101" sqref="D101:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1551,6 +1551,9 @@
       <c r="C101" t="s">
         <v>5</v>
       </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="B102" t="s">
@@ -1559,12 +1562,45 @@
       <c r="C102" t="s">
         <v>5</v>
       </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="B103" t="s">
         <v>55</v>
       </c>
       <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:D103"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1587,6 +1587,9 @@
       <c r="C106" t="s">
         <v>5</v>
       </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="B107" t="s">
@@ -1595,12 +1598,39 @@
       <c r="C107" t="s">
         <v>5</v>
       </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="B108" t="s">
         <v>55</v>
       </c>
       <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>43045</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,13 @@
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目熟悉需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
   </si>
 </sst>
 </file>
@@ -663,7 +670,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1617,10 +1624,16 @@
       <c r="A110" s="1">
         <v>43045</v>
       </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="111" spans="1:4">
       <c r="B111" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -1628,10 +1641,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="B112" t="s">
-        <v>55</v>
-      </c>
-      <c r="C112" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -667,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1642,6 +1642,11 @@
     <row r="112" spans="1:4">
       <c r="B112" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,9 +304,6 @@
   <si>
     <t>云谷项目熟悉需</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
   </si>
 </sst>
 </file>
@@ -667,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1628,7 +1625,10 @@
         <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1638,15 +1638,46 @@
       <c r="C111" t="s">
         <v>5</v>
       </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:4">
       <c r="B112" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>1</v>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>43046</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:D112"/>
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>43046</v>
       </c>
@@ -1663,20 +1663,50 @@
       <c r="C114" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="B115" t="s">
         <v>55</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="B116" t="s">
-        <v>62</v>
-      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>43047</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="C120" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C121" activeCellId="1" sqref="C118:C119 C121:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1696,6 +1696,9 @@
       <c r="C118" t="s">
         <v>5</v>
       </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:4">
       <c r="B119" t="s">
@@ -1704,9 +1707,26 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="C120" t="s">
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>43048</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,10 @@
   </si>
   <si>
     <t>云谷项目熟悉需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文APP进行回归测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C121" activeCellId="1" sqref="C118:C119 C121:C122"/>
+      <selection activeCell="D121" sqref="D121:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1721,12 +1725,45 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
       <c r="B122" t="s">
         <v>55</v>
       </c>
       <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>43049</v>
+      </c>
+      <c r="B124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121:D122"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1750,6 +1750,9 @@
       <c r="C124" t="s">
         <v>5</v>
       </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
       <c r="B125" t="s">
@@ -1758,12 +1761,45 @@
       <c r="C125" t="s">
         <v>5</v>
       </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
       <c r="B126" t="s">
         <v>63</v>
       </c>
       <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>43052</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128:C130"/>
+      <selection activeCell="C132" sqref="C132:C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1786,20 +1786,56 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="2:3">
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="B129" t="s">
         <v>55</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="2:3">
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="B130" t="s">
         <v>48</v>
       </c>
       <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>43053</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
         <v>5</v>
       </c>
     </row>

--- a/交流管理/项目日报/夏金龙-每日要做的事.xlsx
+++ b/交流管理/项目日报/夏金龙-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132:C134"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1822,6 +1822,9 @@
       <c r="C132" t="s">
         <v>5</v>
       </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="B133" t="s">
@@ -1830,12 +1833,45 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="B134" t="s">
         <v>48</v>
       </c>
       <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>43054</v>
+      </c>
+      <c r="B136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="B137" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" t="s">
         <v>5</v>
       </c>
     </row>
